--- a/Modeling/order_2.xlsx
+++ b/Modeling/order_2.xlsx
@@ -15,12 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
   <si>
     <t>interference</t>
   </si>
   <si>
     <t>delay</t>
+  </si>
+  <si>
+    <t>order</t>
   </si>
 </sst>
 </file>
@@ -369,7 +372,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C201"/>
+  <dimension ref="A1:D201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -377,2212 +380,2815 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.69</v>
+        <v>5.51</v>
       </c>
       <c r="C2" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.77</v>
+        <v>8.1</v>
       </c>
       <c r="C3" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.66</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.12</v>
+        <v>6.28</v>
       </c>
       <c r="C5" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.57</v>
+        <v>9.51</v>
       </c>
       <c r="C6" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.34</v>
+        <v>7.75</v>
       </c>
       <c r="C7" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.71</v>
+        <v>8.25</v>
       </c>
       <c r="C8" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.41</v>
+        <v>6.28</v>
       </c>
       <c r="C9" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.52</v>
+        <v>9.49</v>
       </c>
       <c r="C10" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.02</v>
+        <v>5.32</v>
       </c>
       <c r="C11" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6.42</v>
+        <v>6.17</v>
       </c>
       <c r="C12" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6.69</v>
+        <v>4.33</v>
       </c>
       <c r="C13" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6.05</v>
+        <v>6.04</v>
       </c>
       <c r="C14" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.31</v>
+        <v>7.19</v>
       </c>
       <c r="C15" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6.59</v>
+        <v>8.31</v>
       </c>
       <c r="C16" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6.59</v>
+        <v>7.04</v>
       </c>
       <c r="C17" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.65</v>
+        <v>5.09</v>
       </c>
       <c r="C18" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.6</v>
+        <v>5.67</v>
       </c>
       <c r="C19" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.18</v>
+        <v>8.77</v>
       </c>
       <c r="C20" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.16</v>
+        <v>4.54</v>
       </c>
       <c r="C21" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>6.49</v>
+        <v>5.3</v>
       </c>
       <c r="C22" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>6.45</v>
+        <v>6.89</v>
       </c>
       <c r="C23" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>6.14</v>
+        <v>4.41</v>
       </c>
       <c r="C24" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>6.59</v>
+        <v>7.43</v>
       </c>
       <c r="C25" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>6.51</v>
+        <v>4.59</v>
       </c>
       <c r="C26" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>6.55</v>
+        <v>8.66</v>
       </c>
       <c r="C27" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>6.42</v>
+        <v>8.1</v>
       </c>
       <c r="C28" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>6.25</v>
+        <v>4.97</v>
       </c>
       <c r="C29" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>6.1</v>
+        <v>2.65</v>
       </c>
       <c r="C30" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>6.34</v>
+        <v>3.67</v>
       </c>
       <c r="C31" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>6.15</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="C32" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>6.15</v>
+        <v>3.29</v>
       </c>
       <c r="C33" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>6.56</v>
+        <v>5.35</v>
       </c>
       <c r="C34" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>5.87</v>
+        <v>7.12</v>
       </c>
       <c r="C35" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>6.38</v>
+        <v>10.37</v>
       </c>
       <c r="C36" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>6.15</v>
+        <v>7.78</v>
       </c>
       <c r="C37" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>6.02</v>
+        <v>8</v>
       </c>
       <c r="C38" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>6.46</v>
+        <v>6.96</v>
       </c>
       <c r="C39" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>6.53</v>
+        <v>6.25</v>
       </c>
       <c r="C40" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>6.18</v>
+        <v>6.98</v>
       </c>
       <c r="C41" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>6.19</v>
+        <v>7.25</v>
       </c>
       <c r="C42" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>6.12</v>
+        <v>5.51</v>
       </c>
       <c r="C43" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>6.48</v>
+        <v>11.23</v>
       </c>
       <c r="C44" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>6.29</v>
+        <v>3.39</v>
       </c>
       <c r="C45" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>6.46</v>
+        <v>5.78</v>
       </c>
       <c r="C46" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>6.21</v>
+        <v>5.75</v>
       </c>
       <c r="C47" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>6.39</v>
+        <v>5.7</v>
       </c>
       <c r="C48" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>6.55</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="C49" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>6.25</v>
+        <v>7.9</v>
       </c>
       <c r="C50" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>6.26</v>
+        <v>3.47</v>
       </c>
       <c r="C51" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>6.6</v>
+        <v>6.96</v>
       </c>
       <c r="C52" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>6.53</v>
+        <v>3.4</v>
       </c>
       <c r="C53" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>6.67</v>
+        <v>5.79</v>
       </c>
       <c r="C54" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>5.88</v>
+        <v>6.4</v>
       </c>
       <c r="C55" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>6.57</v>
+        <v>6.23</v>
       </c>
       <c r="C56" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>6.32</v>
+        <v>6.25</v>
       </c>
       <c r="C57" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>6.34</v>
+        <v>4.03</v>
       </c>
       <c r="C58" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>6.23</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="C59" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>6.75</v>
+        <v>7.76</v>
       </c>
       <c r="C60" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>6.63</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="C61" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>6.72</v>
+        <v>6.91</v>
       </c>
       <c r="C62" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>6.71</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C63" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>6.49</v>
+        <v>7.18</v>
       </c>
       <c r="C64" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>6.39</v>
+        <v>7.99</v>
       </c>
       <c r="C65" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>6.48</v>
+        <v>6.4</v>
       </c>
       <c r="C66" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>6.59</v>
+        <v>6.78</v>
       </c>
       <c r="C67" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>6.19</v>
+        <v>4.73</v>
       </c>
       <c r="C68" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>6.57</v>
+        <v>6.27</v>
       </c>
       <c r="C69" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>6.16</v>
+        <v>4.11</v>
       </c>
       <c r="C70" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>6.24</v>
+        <v>7.34</v>
       </c>
       <c r="C71" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>6.12</v>
+        <v>4.29</v>
       </c>
       <c r="C72" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>6.34</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="C73" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>6.44</v>
+        <v>5.58</v>
       </c>
       <c r="C74" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>6.53</v>
+        <v>11.14</v>
       </c>
       <c r="C75" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>6.36</v>
+        <v>6.95</v>
       </c>
       <c r="C76" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>6.42</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="C77" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>6.23</v>
+        <v>7.66</v>
       </c>
       <c r="C78" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>6.58</v>
+        <v>8.26</v>
       </c>
       <c r="C79" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="D79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>6.43</v>
+        <v>6.52</v>
       </c>
       <c r="C80" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="D80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>6.22</v>
+        <v>6.19</v>
       </c>
       <c r="C81" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="D81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>6.6</v>
+        <v>7.27</v>
       </c>
       <c r="C82" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>6.17</v>
+        <v>7.54</v>
       </c>
       <c r="C83" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>6.33</v>
+        <v>4.88</v>
       </c>
       <c r="C84" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="D84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>6.6</v>
+        <v>5.81</v>
       </c>
       <c r="C85" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="D85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>6.42</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="C86" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="D86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>6.48</v>
+        <v>5.58</v>
       </c>
       <c r="C87" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="D87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>6.67</v>
+        <v>4.99</v>
       </c>
       <c r="C88" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="D88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>6.39</v>
+        <v>5.73</v>
       </c>
       <c r="C89" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="D89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>6.57</v>
+        <v>7.67</v>
       </c>
       <c r="C90" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="D90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>6.47</v>
+        <v>7.11</v>
       </c>
       <c r="C91" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="D91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>6.21</v>
+        <v>5.06</v>
       </c>
       <c r="C92" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="D92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>6.13</v>
+        <v>4.47</v>
       </c>
       <c r="C93" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="D93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>6.49</v>
+        <v>6.18</v>
       </c>
       <c r="C94" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="D94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>6.3</v>
+        <v>5.07</v>
       </c>
       <c r="C95" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="D95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>6.31</v>
+        <v>9.4</v>
       </c>
       <c r="C96" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>6.46</v>
+        <v>6.5</v>
       </c>
       <c r="C97" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="D97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>6.29</v>
+        <v>6.36</v>
       </c>
       <c r="C98" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="D98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>6.33</v>
+        <v>5.77</v>
       </c>
       <c r="C99" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="D99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>6.54</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="C100" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>6.55</v>
+        <v>5.21</v>
       </c>
       <c r="C101" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="D101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B102" t="n">
-        <v>3.77</v>
+        <v>1.86</v>
       </c>
       <c r="C102" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B103" t="n">
-        <v>3.95</v>
+        <v>5.42</v>
       </c>
       <c r="C103" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B104" t="n">
-        <v>3.81</v>
+        <v>8.44</v>
       </c>
       <c r="C104" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="D104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B105" t="n">
-        <v>3.78</v>
+        <v>3.54</v>
       </c>
       <c r="C105" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="D105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B106" t="n">
-        <v>4.01</v>
+        <v>2.08</v>
       </c>
       <c r="C106" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="D106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B107" t="n">
-        <v>3.45</v>
+        <v>6.57</v>
       </c>
       <c r="C107" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="D107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B108" t="n">
-        <v>3.14</v>
+        <v>3.33</v>
       </c>
       <c r="C108" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="D108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B109" t="n">
-        <v>3.87</v>
+        <v>2.02</v>
       </c>
       <c r="C109" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="D109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B110" t="n">
-        <v>3.98</v>
+        <v>4.14</v>
       </c>
       <c r="C110" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="D110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B111" t="n">
-        <v>3.19</v>
+        <v>4.57</v>
       </c>
       <c r="C111" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="D111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B112" t="n">
-        <v>3.54</v>
+        <v>-0.42</v>
       </c>
       <c r="C112" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="D112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B113" t="n">
-        <v>3.9</v>
+        <v>5.32</v>
       </c>
       <c r="C113" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="D113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B114" t="n">
-        <v>3.73</v>
+        <v>1.58</v>
       </c>
       <c r="C114" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="D114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B115" t="n">
-        <v>3.67</v>
+        <v>1.85</v>
       </c>
       <c r="C115" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="D115" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B116" t="n">
-        <v>3.18</v>
+        <v>5.36</v>
       </c>
       <c r="C116" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="D116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B117" t="n">
-        <v>3.72</v>
+        <v>3.8</v>
       </c>
       <c r="C117" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="D117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B118" t="n">
-        <v>3.86</v>
+        <v>0.42</v>
       </c>
       <c r="C118" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="D118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B119" t="n">
-        <v>3.23</v>
+        <v>2.83</v>
       </c>
       <c r="C119" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="D119" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B120" t="n">
-        <v>3.13</v>
+        <v>3.39</v>
       </c>
       <c r="C120" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="D120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B121" t="n">
-        <v>3.76</v>
+        <v>2.58</v>
       </c>
       <c r="C121" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="D121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B122" t="n">
-        <v>4.27</v>
+        <v>4.68</v>
       </c>
       <c r="C122" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="123" spans="1:3">
+      <c r="D122" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B123" t="n">
-        <v>3.6</v>
+        <v>1.05</v>
       </c>
       <c r="C123" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="124" spans="1:3">
+      <c r="D123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B124" t="n">
-        <v>3.68</v>
+        <v>5.04</v>
       </c>
       <c r="C124" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="125" spans="1:3">
+      <c r="D124" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B125" t="n">
-        <v>3.62</v>
+        <v>3.33</v>
       </c>
       <c r="C125" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="126" spans="1:3">
+      <c r="D125" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B126" t="n">
-        <v>4.1</v>
+        <v>3.61</v>
       </c>
       <c r="C126" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="127" spans="1:3">
+      <c r="D126" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B127" t="n">
-        <v>3.84</v>
+        <v>4.33</v>
       </c>
       <c r="C127" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="128" spans="1:3">
+      <c r="D127" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B128" t="n">
-        <v>3.87</v>
+        <v>3.19</v>
       </c>
       <c r="C128" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="129" spans="1:3">
+      <c r="D128" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B129" t="n">
-        <v>3.51</v>
+        <v>-0.01</v>
       </c>
       <c r="C129" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="130" spans="1:3">
+      <c r="D129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B130" t="n">
-        <v>3.93</v>
+        <v>3.15</v>
       </c>
       <c r="C130" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="131" spans="1:3">
+      <c r="D130" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B131" t="n">
-        <v>3.36</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C131" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="132" spans="1:3">
+      <c r="D131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B132" t="n">
-        <v>3.76</v>
+        <v>3.53</v>
       </c>
       <c r="C132" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="133" spans="1:3">
+      <c r="D132" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B133" t="n">
-        <v>4.29</v>
+        <v>3.13</v>
       </c>
       <c r="C133" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="134" spans="1:3">
+      <c r="D133" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B134" t="n">
-        <v>4</v>
+        <v>4.11</v>
       </c>
       <c r="C134" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="135" spans="1:3">
+      <c r="D134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B135" t="n">
-        <v>3.66</v>
+        <v>2.22</v>
       </c>
       <c r="C135" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="136" spans="1:3">
+      <c r="D135" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B136" t="n">
-        <v>3.89</v>
+        <v>0.64</v>
       </c>
       <c r="C136" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="137" spans="1:3">
+      <c r="D136" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B137" t="n">
-        <v>3.58</v>
+        <v>4.19</v>
       </c>
       <c r="C137" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="138" spans="1:3">
+      <c r="D137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B138" t="n">
-        <v>3.97</v>
+        <v>8.58</v>
       </c>
       <c r="C138" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="139" spans="1:3">
+      <c r="D138" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B139" t="n">
-        <v>3.51</v>
+        <v>2.74</v>
       </c>
       <c r="C139" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="140" spans="1:3">
+      <c r="D139" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B140" t="n">
-        <v>3.52</v>
+        <v>4.05</v>
       </c>
       <c r="C140" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="141" spans="1:3">
+      <c r="D140" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B141" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="C141" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="142" spans="1:3">
+      <c r="D141" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B142" t="n">
-        <v>3.89</v>
+        <v>1.63</v>
       </c>
       <c r="C142" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="143" spans="1:3">
+      <c r="D142" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B143" t="n">
-        <v>3.71</v>
+        <v>2.27</v>
       </c>
       <c r="C143" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="144" spans="1:3">
+      <c r="D143" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B144" t="n">
-        <v>3.68</v>
+        <v>7.28</v>
       </c>
       <c r="C144" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="145" spans="1:3">
+      <c r="D144" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B145" t="n">
-        <v>3.81</v>
+        <v>3.14</v>
       </c>
       <c r="C145" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="146" spans="1:3">
+      <c r="D145" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B146" t="n">
-        <v>3.71</v>
+        <v>2.93</v>
       </c>
       <c r="C146" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="147" spans="1:3">
+      <c r="D146" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B147" t="n">
-        <v>3.65</v>
+        <v>3</v>
       </c>
       <c r="C147" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="148" spans="1:3">
+      <c r="D147" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B148" t="n">
-        <v>3.89</v>
+        <v>5.8</v>
       </c>
       <c r="C148" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="149" spans="1:3">
+      <c r="D148" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B149" t="n">
-        <v>3.69</v>
+        <v>5.71</v>
       </c>
       <c r="C149" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="150" spans="1:3">
+      <c r="D149" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
       <c r="A150" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B150" t="n">
-        <v>3.55</v>
+        <v>5.68</v>
       </c>
       <c r="C150" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="151" spans="1:3">
+      <c r="D150" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B151" t="n">
-        <v>4.23</v>
+        <v>4.05</v>
       </c>
       <c r="C151" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="152" spans="1:3">
+      <c r="D151" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B152" t="n">
-        <v>3.65</v>
+        <v>5.52</v>
       </c>
       <c r="C152" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="153" spans="1:3">
+      <c r="D152" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B153" t="n">
-        <v>3.56</v>
+        <v>1.27</v>
       </c>
       <c r="C153" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="154" spans="1:3">
+      <c r="D153" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B154" t="n">
-        <v>3.41</v>
+        <v>3.97</v>
       </c>
       <c r="C154" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="155" spans="1:3">
+      <c r="D154" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
       <c r="A155" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B155" t="n">
-        <v>3.58</v>
+        <v>5.36</v>
       </c>
       <c r="C155" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="156" spans="1:3">
+      <c r="D155" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B156" t="n">
-        <v>4.02</v>
+        <v>3.36</v>
       </c>
       <c r="C156" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="157" spans="1:3">
+      <c r="D156" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
       <c r="A157" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B157" t="n">
-        <v>4.12</v>
+        <v>3.52</v>
       </c>
       <c r="C157" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="158" spans="1:3">
+      <c r="D157" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B158" t="n">
-        <v>3.56</v>
+        <v>-0.32</v>
       </c>
       <c r="C158" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="159" spans="1:3">
+      <c r="D158" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
       <c r="A159" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B159" t="n">
-        <v>3.69</v>
+        <v>4.9</v>
       </c>
       <c r="C159" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="160" spans="1:3">
+      <c r="D159" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
       <c r="A160" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B160" t="n">
-        <v>3.25</v>
+        <v>5.99</v>
       </c>
       <c r="C160" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="161" spans="1:3">
+      <c r="D160" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
       <c r="A161" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B161" t="n">
-        <v>3.16</v>
+        <v>3.29</v>
       </c>
       <c r="C161" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="162" spans="1:3">
+      <c r="D161" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
       <c r="A162" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B162" t="n">
-        <v>3.76</v>
+        <v>2.3</v>
       </c>
       <c r="C162" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="163" spans="1:3">
+      <c r="D162" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
       <c r="A163" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B163" t="n">
-        <v>3.43</v>
+        <v>5.01</v>
       </c>
       <c r="C163" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="164" spans="1:3">
+      <c r="D163" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
       <c r="A164" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B164" t="n">
-        <v>4.43</v>
+        <v>-0.06</v>
       </c>
       <c r="C164" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="165" spans="1:3">
+      <c r="D164" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
       <c r="A165" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B165" t="n">
-        <v>3.8</v>
+        <v>3.32</v>
       </c>
       <c r="C165" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="166" spans="1:3">
+      <c r="D165" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B166" t="n">
-        <v>3.7</v>
+        <v>3.49</v>
       </c>
       <c r="C166" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="167" spans="1:3">
+      <c r="D166" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
       <c r="A167" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B167" t="n">
-        <v>3.78</v>
+        <v>4.34</v>
       </c>
       <c r="C167" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="168" spans="1:3">
+      <c r="D167" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
       <c r="A168" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B168" t="n">
-        <v>3.71</v>
+        <v>3.15</v>
       </c>
       <c r="C168" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="169" spans="1:3">
+      <c r="D168" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
       <c r="A169" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B169" t="n">
-        <v>3.7</v>
+        <v>2.84</v>
       </c>
       <c r="C169" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="170" spans="1:3">
+      <c r="D169" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
       <c r="A170" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B170" t="n">
-        <v>3.81</v>
+        <v>5.25</v>
       </c>
       <c r="C170" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="171" spans="1:3">
+      <c r="D170" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
       <c r="A171" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B171" t="n">
-        <v>3.35</v>
+        <v>1.35</v>
       </c>
       <c r="C171" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="172" spans="1:3">
+      <c r="D171" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
       <c r="A172" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B172" t="n">
-        <v>3.32</v>
+        <v>5.13</v>
       </c>
       <c r="C172" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="173" spans="1:3">
+      <c r="D172" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
       <c r="A173" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B173" t="n">
-        <v>3.55</v>
+        <v>2.22</v>
       </c>
       <c r="C173" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="174" spans="1:3">
+      <c r="D173" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
       <c r="A174" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B174" t="n">
-        <v>4.25</v>
+        <v>4.9</v>
       </c>
       <c r="C174" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="175" spans="1:3">
+      <c r="D174" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
       <c r="A175" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B175" t="n">
-        <v>3.39</v>
+        <v>-1.08</v>
       </c>
       <c r="C175" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="176" spans="1:3">
+      <c r="D175" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
       <c r="A176" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B176" t="n">
-        <v>3.75</v>
+        <v>4.98</v>
       </c>
       <c r="C176" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="177" spans="1:3">
+      <c r="D176" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
       <c r="A177" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B177" t="n">
-        <v>3.59</v>
+        <v>6.96</v>
       </c>
       <c r="C177" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="178" spans="1:3">
+      <c r="D177" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
       <c r="A178" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B178" t="n">
-        <v>3.9</v>
+        <v>4.31</v>
       </c>
       <c r="C178" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="179" spans="1:3">
+      <c r="D178" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
       <c r="A179" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B179" t="n">
-        <v>3.76</v>
+        <v>2.78</v>
       </c>
       <c r="C179" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="180" spans="1:3">
+      <c r="D179" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
       <c r="A180" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B180" t="n">
-        <v>3.45</v>
+        <v>5.1</v>
       </c>
       <c r="C180" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="181" spans="1:3">
+      <c r="D180" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
       <c r="A181" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B181" t="n">
-        <v>3.74</v>
+        <v>3.94</v>
       </c>
       <c r="C181" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="182" spans="1:3">
+      <c r="D181" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
       <c r="A182" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B182" t="n">
-        <v>3.68</v>
+        <v>5.17</v>
       </c>
       <c r="C182" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="183" spans="1:3">
+      <c r="D182" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
       <c r="A183" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B183" t="n">
-        <v>3.69</v>
+        <v>-0.39</v>
       </c>
       <c r="C183" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="184" spans="1:3">
+      <c r="D183" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
       <c r="A184" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B184" t="n">
-        <v>3.73</v>
+        <v>4.62</v>
       </c>
       <c r="C184" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="185" spans="1:3">
+      <c r="D184" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
       <c r="A185" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B185" t="n">
-        <v>3.7</v>
+        <v>3.92</v>
       </c>
       <c r="C185" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="186" spans="1:3">
+      <c r="D185" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
       <c r="A186" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B186" t="n">
-        <v>3.6</v>
+        <v>3.73</v>
       </c>
       <c r="C186" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="187" spans="1:3">
+      <c r="D186" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
       <c r="A187" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B187" t="n">
-        <v>3.3</v>
+        <v>3.77</v>
       </c>
       <c r="C187" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="188" spans="1:3">
+      <c r="D187" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
       <c r="A188" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B188" t="n">
-        <v>3.74</v>
+        <v>3.19</v>
       </c>
       <c r="C188" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="189" spans="1:3">
+      <c r="D188" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
       <c r="A189" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B189" t="n">
-        <v>3.87</v>
+        <v>5.06</v>
       </c>
       <c r="C189" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="190" spans="1:3">
+      <c r="D189" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
       <c r="A190" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B190" t="n">
-        <v>3.74</v>
+        <v>1.04</v>
       </c>
       <c r="C190" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="191" spans="1:3">
+      <c r="D190" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
       <c r="A191" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B191" t="n">
-        <v>3.49</v>
+        <v>4.89</v>
       </c>
       <c r="C191" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="192" spans="1:3">
+      <c r="D191" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
       <c r="A192" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B192" t="n">
-        <v>3.73</v>
+        <v>6.96</v>
       </c>
       <c r="C192" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="193" spans="1:3">
+      <c r="D192" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
       <c r="A193" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B193" t="n">
-        <v>3.59</v>
+        <v>5.09</v>
       </c>
       <c r="C193" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="194" spans="1:3">
+      <c r="D193" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
       <c r="A194" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B194" t="n">
-        <v>4.06</v>
+        <v>5.22</v>
       </c>
       <c r="C194" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="195" spans="1:3">
+      <c r="D194" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
       <c r="A195" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B195" t="n">
-        <v>3.61</v>
+        <v>6.92</v>
       </c>
       <c r="C195" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="196" spans="1:3">
+      <c r="D195" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
       <c r="A196" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B196" t="n">
-        <v>3.85</v>
+        <v>4.72</v>
       </c>
       <c r="C196" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="197" spans="1:3">
+      <c r="D196" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
       <c r="A197" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B197" t="n">
-        <v>3.63</v>
+        <v>2.38</v>
       </c>
       <c r="C197" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="198" spans="1:3">
+      <c r="D197" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
       <c r="A198" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B198" t="n">
-        <v>3.15</v>
+        <v>0.57</v>
       </c>
       <c r="C198" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="199" spans="1:3">
+      <c r="D198" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
       <c r="A199" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B199" t="n">
-        <v>3.59</v>
+        <v>4.34</v>
       </c>
       <c r="C199" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="200" spans="1:3">
+      <c r="D199" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
       <c r="A200" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B200" t="n">
-        <v>3.51</v>
+        <v>11.61</v>
       </c>
       <c r="C200" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="201" spans="1:3">
+      <c r="D200" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
       <c r="A201" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B201" t="n">
-        <v>4.3</v>
+        <v>0.62</v>
       </c>
       <c r="C201" t="n">
         <v>7</v>
+      </c>
+      <c r="D201" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
